--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdConvertCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdConvertCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25577AC-EC4D-4430-B543-DF23DFC68519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C783A-C211-4585-A01B-7E814B91FB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -194,188 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>啟用記號</t>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼說明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode,Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefTypeEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode asc,Code asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>defCodeEq2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode = ,AND DefType = ,AND Code %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode ASC,Code ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCodeList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDefList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DefType = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getItemFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DefType = ,AND DefCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCodeList2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefType = ,AND DefCode = ,AND Code ^i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode &lt;&gt; ,AND DefType = ,AND Code %, AND Item %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code asc</t>
-  </si>
-  <si>
-    <t>Code asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>defCodeEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DefType = ,AND DefCode = ,AND Code = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DefCode = ,AND Code % </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>defItemEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectFlag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode = ,AND Item %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>defItemEq3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND Item %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCodeListWithFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DefCode = ,AND Enable = ,AND EffectFlag = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defCodeLikeAndCodeLike</t>
-  </si>
-  <si>
-    <t>DefCode %,AND Code %</t>
-  </si>
-  <si>
-    <t>Y:啟用
-N:未啟用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:已放行
-1:未放行
-因應L6301放行新增記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>defItemEq2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode = ,AND DefType = ,AND Item %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>因應QC1297單，新增設置代碼長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼最小長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼最大長度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinCodeLength</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxCodeLength</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CdConvertCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -388,7 +206,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TypeCode</t>
+    <t>原始代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始代碼說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>newCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新貸中代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eloan CustTypeCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType,orgCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +352,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,12 +363,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -583,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,18 +513,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
@@ -1047,23 +879,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="27" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1075,12 +907,12 @@
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="22"/>
@@ -1088,10 +920,10 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="24"/>
       <c r="D4" s="23"/>
       <c r="E4" s="22"/>
@@ -1099,10 +931,10 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="24"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
@@ -1110,10 +942,10 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="22"/>
@@ -1121,10 +953,10 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="24"/>
       <c r="D7" s="23"/>
       <c r="E7" s="22"/>
@@ -1159,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>9</v>
@@ -1173,17 +1005,19 @@
       <c r="F9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="26">
         <v>2</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>9</v>
@@ -1203,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>20</v>
@@ -1221,207 +1055,134 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34">
+    <row r="12" spans="1:7">
       <c r="A12" s="26">
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="26">
-        <v>1</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51">
+        <v>20</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="26">
         <v>5</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>64</v>
+      <c r="B13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.65" customHeight="1">
       <c r="A14" s="26">
         <v>6</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="31">
-        <v>1</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>71</v>
-      </c>
+      <c r="B14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="26">
+        <v>6</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="26">
         <v>7</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="31">
-        <v>1</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>71</v>
-      </c>
+      <c r="B15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="26">
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.65" customHeight="1">
-      <c r="A17" s="26">
         <v>9</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="26">
+      <c r="E16" s="26">
         <v>6</v>
       </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="26">
-        <v>10</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="26"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="26">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="26">
-        <v>6</v>
-      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1441,12 +1202,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1468,138 +1229,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdConvertCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdConvertCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C783A-C211-4585-A01B-7E814B91FB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A633C6-7035-463E-9AAB-E94B4825C68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdConvertCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdConvertCode.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A633C6-7035-463E-9AAB-E94B4825C68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E5AAB-47DB-494A-B8B5-0D4211F5DE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -134,9 +124,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -240,6 +227,9 @@
   <si>
     <t>CodeType,orgCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -427,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,7 +433,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,10 +442,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,9 +454,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,10 +469,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,9 +481,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -509,10 +493,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,9 +525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -581,9 +565,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,26 +600,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,26 +635,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -864,287 +814,287 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.453125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="11"/>
+    <col min="1" max="1" width="5.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="D2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="27" t="s">
+      <c r="D9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24">
+        <v>20</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24">
+        <v>2</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24">
+        <v>20</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24">
+        <v>3</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="24">
+        <v>50</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24">
+        <v>4</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="24">
+        <v>20</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24">
+        <v>5</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1">
-      <c r="A8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A14" s="24">
         <v>6</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="26">
-        <v>1</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="B14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26">
-        <v>20</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="26">
-        <v>2</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="26">
-        <v>20</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="26">
-        <v>3</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="26">
-        <v>50</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="26">
-        <v>4</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="26">
-        <v>20</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="26">
-        <v>5</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.65" customHeight="1">
-      <c r="A14" s="26">
-        <v>6</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>6</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26">
+      <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="26"/>
+      <c r="D15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="24"/>
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26">
+      <c r="A16" s="24">
         <v>8</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>6</v>
       </c>
       <c r="F16" s="10"/>
@@ -1153,7 +1103,7 @@
     <row r="17" spans="2:7">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="4"/>
       <c r="F17" s="10"/>
       <c r="G17" s="7"/>
@@ -1163,7 +1113,7 @@
       <c r="C18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="6"/>
@@ -1171,7 +1121,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="6"/>
@@ -1210,11 +1160,11 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
